--- a/TestData/xlsx/Maestros.xlsx
+++ b/TestData/xlsx/Maestros.xlsx
@@ -386,10 +386,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
